--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Dkk1-Lrp5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Dkk1-Lrp5.xlsx
@@ -537,7 +537,7 @@
         <v>0.03046</v>
       </c>
       <c r="H2">
-        <v>0.09137999999999999</v>
+        <v>0.09138</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.215523666666667</v>
+        <v>15.01856033333333</v>
       </c>
       <c r="N2">
-        <v>18.646571</v>
+        <v>45.055681</v>
       </c>
       <c r="O2">
-        <v>0.2852115546146347</v>
+        <v>0.4908713633047416</v>
       </c>
       <c r="P2">
-        <v>0.2852115546146348</v>
+        <v>0.4908713633047417</v>
       </c>
       <c r="Q2">
-        <v>0.1893248508866666</v>
+        <v>0.4574653477533334</v>
       </c>
       <c r="R2">
-        <v>1.70392365798</v>
+        <v>4.11718812978</v>
       </c>
       <c r="S2">
-        <v>0.2852115546146347</v>
+        <v>0.4908713633047416</v>
       </c>
       <c r="T2">
-        <v>0.2852115546146348</v>
+        <v>0.4908713633047417</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,7 +599,7 @@
         <v>0.03046</v>
       </c>
       <c r="H3">
-        <v>0.09137999999999999</v>
+        <v>0.09138</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>28.452212</v>
       </c>
       <c r="O3">
-        <v>0.4351952762116512</v>
+        <v>0.3099803572711625</v>
       </c>
       <c r="P3">
-        <v>0.4351952762116512</v>
+        <v>0.3099803572711625</v>
       </c>
       <c r="Q3">
-        <v>0.2888847925066666</v>
+        <v>0.2888847925066667</v>
       </c>
       <c r="R3">
         <v>2.59996313256</v>
       </c>
       <c r="S3">
-        <v>0.4351952762116512</v>
+        <v>0.3099803572711625</v>
       </c>
       <c r="T3">
-        <v>0.4351952762116512</v>
+        <v>0.3099803572711625</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,7 +661,7 @@
         <v>0.03046</v>
       </c>
       <c r="H4">
-        <v>0.09137999999999999</v>
+        <v>0.09138</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -682,10 +682,10 @@
         <v>18.279252</v>
       </c>
       <c r="O4">
-        <v>0.2795931691737141</v>
+        <v>0.1991482794240958</v>
       </c>
       <c r="P4">
-        <v>0.2795931691737141</v>
+        <v>0.1991482794240958</v>
       </c>
       <c r="Q4">
         <v>0.18559533864</v>
@@ -694,10 +694,10 @@
         <v>1.67035804776</v>
       </c>
       <c r="S4">
-        <v>0.2795931691737141</v>
+        <v>0.1991482794240958</v>
       </c>
       <c r="T4">
-        <v>0.2795931691737141</v>
+        <v>0.1991482794240958</v>
       </c>
     </row>
   </sheetData>
